--- a/xlsx/热带沙漠气候_intext.xlsx
+++ b/xlsx/热带沙漠气候_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>热带沙漠气候</t>
   </si>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B0%A3</t>
   </si>
   <si>
-    <t>水氣</t>
+    <t>水气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>熱量</t>
+    <t>热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E5%A4%8F%E5%B9%B2%E6%B0%94%E5%80%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E8%BC%BB%E5%90%88%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶輻合帶</t>
+    <t>热带辐合带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BE</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%A6%AC</t>
   </si>
   <si>
-    <t>利馬</t>
+    <t>利马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E6%B0%B4</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%97%E6%A4%B0</t>
   </si>
   <si>
-    <t>棗椰</t>
+    <t>枣椰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9C%B0%E9%82%A3</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%8B%9C</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E9%81%94%E6%AF%94</t>
   </si>
   <si>
-    <t>阿布達比</t>
+    <t>阿布达比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E9%A6%AC</t>
   </si>
   <si>
-    <t>比爾馬</t>
+    <t>比尔马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%A2%A8%E7%B3%BB</t>
   </si>
   <si>
-    <t>行星風系</t>
+    <t>行星风系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B5%81</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -773,27 +773,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -803,21 +797,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
   </si>
   <si>
@@ -827,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -857,19 +845,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -893,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -5061,7 +5046,7 @@
         <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5087,10 +5072,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5116,10 +5101,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5145,10 +5130,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5174,10 +5159,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5232,10 +5217,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5261,10 +5246,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>8</v>
@@ -5319,10 +5304,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5377,10 +5362,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5464,10 +5449,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5493,10 +5478,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5522,10 +5507,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5580,10 +5565,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5609,10 +5594,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5638,10 +5623,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5667,10 +5652,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5696,10 +5681,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5725,10 +5710,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5754,10 +5739,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5783,10 +5768,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5812,10 +5797,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5841,10 +5826,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5870,10 +5855,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -5899,10 +5884,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F160" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
